--- a/打分表.xlsx
+++ b/打分表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\SummerMission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3169940C-A6B1-47DC-86DA-EDC85BB85A93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEC723A-3189-4E4D-AA21-9BA074BA20EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>7.3-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹瑞祺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -408,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -430,10 +426,10 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -452,6 +448,9 @@
       <c r="E2">
         <v>3</v>
       </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -464,6 +463,12 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
     </row>
@@ -554,12 +559,24 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -568,49 +585,32 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
         <v>3</v>
       </c>
     </row>

--- a/打分表.xlsx
+++ b/打分表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\SummerMission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEC723A-3189-4E4D-AA21-9BA074BA20EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72235D84-F444-49CE-827B-4C9D5557E930}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -556,6 +556,12 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">

--- a/打分表.xlsx
+++ b/打分表.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\SummerMission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72235D84-F444-49CE-827B-4C9D5557E930}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5352B535-10D3-4FF2-BA3B-F55ECA6D1667}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +84,14 @@
   </si>
   <si>
     <t>7.4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.9-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.9-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,8 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,15 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,8 +445,17 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1">
+        <v>43657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -451,8 +474,21 @@
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>SUM(B2:I2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -471,8 +507,21 @@
       <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="0">SUM(B3:I3)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -491,8 +540,15 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -511,8 +567,18 @@
       <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -531,8 +597,18 @@
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -551,8 +627,21 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -562,8 +651,18 @@
       <c r="F8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -579,8 +678,12 @@
       <c r="E9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -599,8 +702,18 @@
       <c r="F10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -618,6 +731,13 @@
       </c>
       <c r="F11">
         <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
